--- a/mddf-lib/test/resources/avails/xlsx/Movies_v1.7.3.xlsx
+++ b/mddf-lib/test/resources/avails/xlsx/Movies_v1.7.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="509" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="796" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="178">
   <si>
     <t>Avail</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>foo</t>
   </si>
   <si>
     <t>FIRSTDANCE_2012</t>
@@ -625,8 +628,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0C0C0C"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
@@ -788,7 +791,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF0C0C0C"/>
+      <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF85200C"/>
       <rgbColor rgb="FF993366"/>
@@ -804,10 +807,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BY9"/>
+  <dimension ref="A1:BZ9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y7" activeCellId="0" sqref="Y7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BT15" activeCellId="0" sqref="BT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,7 +830,7 @@
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="48.2295918367347"/>
     <col collapsed="false" hidden="true" max="18" min="18" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="48.1377551020408"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.4183673469388"/>
     <col collapsed="false" hidden="true" max="21" min="21" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.4387755102041"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.5255102040816"/>
@@ -1349,7 +1352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1426,7 +1429,7 @@
       <c r="BV3" s="6"/>
       <c r="BW3" s="6"/>
       <c r="BX3" s="6"/>
-      <c r="BY3" s="6"/>
+      <c r="BY3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -1844,13 +1847,16 @@
       <c r="BU7" s="8" t="s">
         <v>156</v>
       </c>
+      <c r="BZ7" s="0" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>84</v>
@@ -1859,43 +1865,43 @@
         <v>136</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD8" s="10" t="s">
         <v>142</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF8" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG8" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL8" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM8" s="10" t="s">
         <v>148</v>
@@ -1907,7 +1913,7 @@
         <v>126</v>
       </c>
       <c r="AV8" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AX8" s="10" t="s">
         <v>97</v>
@@ -1916,10 +1922,10 @@
         <v>151</v>
       </c>
       <c r="BE8" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BF8" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BK8" s="10" t="s">
         <v>129</v>
@@ -1928,21 +1934,21 @@
         <v>130</v>
       </c>
       <c r="BP8" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BR8" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BS8" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1961,17 +1967,17 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>88</v>
@@ -1980,35 +1986,35 @@
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD9" s="10" t="s">
         <v>142</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF9" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG9" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
       <c r="AK9" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM9" s="10" t="s">
         <v>148</v>
@@ -2019,16 +2025,16 @@
         <v>118</v>
       </c>
       <c r="AV9" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BA9" s="10" t="s">
         <v>155</v>
       </c>
       <c r="BE9" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BF9" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BK9" s="10" t="s">
         <v>129</v>
@@ -2037,13 +2043,13 @@
         <v>130</v>
       </c>
       <c r="BP9" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BR9" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BS9" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/mddf-lib/test/resources/avails/xlsx/Movies_v1.7.3.xlsx
+++ b/mddf-lib/test/resources/avails/xlsx/Movies_v1.7.3.xlsx
@@ -809,69 +809,69 @@
   </sheetPr>
   <dimension ref="A1:BZ9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BL1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BT15" activeCellId="0" sqref="BT15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0051020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7295918367347"/>
-    <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0204081632653"/>
-    <col collapsed="false" hidden="true" max="7" min="5" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3979591836735"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1326530612245"/>
-    <col collapsed="false" hidden="true" max="11" min="10" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="48.2295918367347"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.6887755102041"/>
-    <col collapsed="false" hidden="true" max="14" min="14" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0051020408163"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="48.2295918367347"/>
-    <col collapsed="false" hidden="true" max="18" min="18" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="48.1377551020408"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="true" max="21" min="21" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.4387755102041"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.5255102040816"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="24.3010204081633"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.3775510204082"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.0459183673469"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="17.0204081632653"/>
-    <col collapsed="false" hidden="true" max="28" min="28" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="30" min="29" style="0" width="14.7959183673469"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="22.8928571428571"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="25.8826530612245"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="14.7959183673469"/>
-    <col collapsed="false" hidden="true" max="36" min="34" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="36" min="34" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="43.9438775510204"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="32.4183673469388"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.7959183673469"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="25.7908163265306"/>
-    <col collapsed="false" hidden="true" max="41" min="41" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="42" min="42" style="0" width="15.6071428571429"/>
     <col collapsed="false" hidden="false" max="43" min="43" style="0" width="15.7755102040816"/>
     <col collapsed="false" hidden="false" max="44" min="44" style="0" width="33.3979591836735"/>
-    <col collapsed="false" hidden="true" max="45" min="45" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="46" min="46" style="0" width="38.6683673469388"/>
     <col collapsed="false" hidden="false" max="47" min="47" style="0" width="8.6734693877551"/>
     <col collapsed="false" hidden="false" max="48" min="48" style="0" width="14.7397959183673"/>
     <col collapsed="false" hidden="false" max="49" min="49" style="0" width="12.8775510204082"/>
     <col collapsed="false" hidden="false" max="50" min="50" style="0" width="8.6734693877551"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="0" width="19.5459183673469"/>
-    <col collapsed="false" hidden="true" max="52" min="52" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="53" min="53" style="0" width="14.1479591836735"/>
     <col collapsed="false" hidden="false" max="55" min="54" style="0" width="8.6734693877551"/>
-    <col collapsed="false" hidden="true" max="56" min="56" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="57" min="57" style="0" width="25.1428571428571"/>
     <col collapsed="false" hidden="false" max="58" min="58" style="0" width="12.7857142857143"/>
     <col collapsed="false" hidden="false" max="59" min="59" style="0" width="8.6734693877551"/>
     <col collapsed="false" hidden="false" max="60" min="60" style="0" width="25.8469387755102"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="0" width="29.7602040816327"/>
-    <col collapsed="false" hidden="true" max="62" min="62" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="0" width="11.8724489795918"/>
     <col collapsed="false" hidden="false" max="64" min="64" style="0" width="16.219387755102"/>
-    <col collapsed="false" hidden="true" max="66" min="65" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="66" min="65" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="67" min="67" style="0" width="8.6734693877551"/>
     <col collapsed="false" hidden="false" max="68" min="68" style="0" width="14.7397959183673"/>
     <col collapsed="false" hidden="false" max="69" min="69" style="0" width="8.6734693877551"/>
@@ -879,10 +879,10 @@
     <col collapsed="false" hidden="false" max="71" min="71" style="0" width="8.6734693877551"/>
     <col collapsed="false" hidden="false" max="72" min="72" style="0" width="18.4132653061224"/>
     <col collapsed="false" hidden="false" max="73" min="73" style="0" width="12.4438775510204"/>
-    <col collapsed="false" hidden="true" max="74" min="74" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="75" min="75" style="0" width="8.6734693877551"/>
     <col collapsed="false" hidden="false" max="76" min="76" style="0" width="16.9030612244898"/>
-    <col collapsed="false" hidden="true" max="77" min="77" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="78" style="0" width="10.8061224489796"/>
   </cols>
   <sheetData>
